--- a/excel/image.xlsx
+++ b/excel/image.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>PSPNet_VOC</t>
+    <t>PSPNet_VOC_30</t>
   </si>
   <si>
     <t>UNet_VOC</t>
@@ -28,7 +28,7 @@
     <t>FCN_VOC</t>
   </si>
   <si>
-    <t>PSPNet_CITY</t>
+    <t>PSPNet_CITY_90</t>
   </si>
   <si>
     <t>UNet_CITY</t>
@@ -40,7 +40,7 @@
     <t>FCN_CITY</t>
   </si>
   <si>
-    <t>PSPNet_COCO</t>
+    <t>PSPNet_COCO_80</t>
   </si>
   <si>
     <t>UNet_COCO</t>
@@ -577,7 +577,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
-        <v>13.06571050378258</v>
+        <v>10.56524017978362</v>
       </c>
       <c r="B4">
         <v>6.209296762010482</v>
@@ -589,7 +589,7 @@
         <v>13.69680854255826</v>
       </c>
       <c r="E4">
-        <v>6.24688381892113</v>
+        <v>4.882330994269591</v>
       </c>
       <c r="F4">
         <v>6.891833809130398</v>
@@ -601,7 +601,7 @@
         <v>5.345808676236599</v>
       </c>
       <c r="I4">
-        <v>17.18789230352475</v>
+        <v>14.26484934797158</v>
       </c>
       <c r="J4">
         <v>5.257554853554354</v>
@@ -613,13 +613,13 @@
         <v>9.198900068513778</v>
       </c>
       <c r="M4">
-        <v>9.805126517150144</v>
+        <v>5.854665933821874</v>
       </c>
       <c r="N4">
         <v>3.675093475125255</v>
       </c>
       <c r="O4">
-        <v>9.221253178556781</v>
+        <v>8.17642953915664</v>
       </c>
       <c r="P4">
         <v>8.083970649286256</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
-        <v>2.395705171740218</v>
+        <v>2.56984538892203</v>
       </c>
       <c r="B5">
         <v>0.7910547061146703</v>
@@ -639,7 +639,7 @@
         <v>4.462957896919937</v>
       </c>
       <c r="E5">
-        <v>1.636096112741183</v>
+        <v>0.915687665704042</v>
       </c>
       <c r="F5">
         <v>2.746563786488233</v>
@@ -651,7 +651,7 @@
         <v>2.057673502310073</v>
       </c>
       <c r="I5">
-        <v>7.077612366359506</v>
+        <v>6.174428014370072</v>
       </c>
       <c r="J5">
         <v>1.579909016997472</v>
@@ -663,13 +663,13 @@
         <v>2.572296567759139</v>
       </c>
       <c r="M5">
-        <v>3.800844148664025</v>
+        <v>2.476999903662215</v>
       </c>
       <c r="N5">
         <v>0.6965974462471712</v>
       </c>
       <c r="O5">
-        <v>2.736267839415639</v>
+        <v>0.4894866839297236</v>
       </c>
       <c r="P5">
         <v>2.088380660497569</v>
